--- a/results/DeterministicUSM/dataset_10/results_excel_26-9-22_freelancer_constrained_1_.xlsx
+++ b/results/DeterministicUSM/dataset_10/results_excel_26-9-22_freelancer_constrained_1_.xlsx
@@ -579,67 +579,67 @@
         <v>50</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="H2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I2">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K2">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="L2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N2">
-        <v>0.5703703703703704</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="O2">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="P2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="Q2">
-        <v>1.353859085366737</v>
+        <v>1.412962608202052</v>
       </c>
       <c r="R2">
-        <v>71.36862298776337</v>
+        <v>62.72038349652408</v>
       </c>
       <c r="S2">
-        <v>3.872340425531915</v>
+        <v>4.108108108108108</v>
       </c>
       <c r="T2">
-        <v>2.283333333333333</v>
+        <v>2.4</v>
       </c>
       <c r="U2">
-        <v>0.8256363636060242</v>
+        <v>0.8754687373538999</v>
       </c>
       <c r="V2">
-        <v>27.46181818363855</v>
+        <v>26.22656313230501</v>
       </c>
       <c r="W2">
-        <v>764</v>
+        <v>771</v>
       </c>
       <c r="X2">
         <v>841</v>
       </c>
       <c r="Y2">
-        <v>706</v>
+        <v>726</v>
       </c>
       <c r="Z2">
-        <v>1.082152974504249</v>
+        <v>1.06198347107438</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -659,67 +659,67 @@
         <v>50</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="H3">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="I3">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K3">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="L3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N3">
-        <v>0.5094339622641509</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="O3">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="P3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="Q3">
-        <v>1.137833001821391</v>
+        <v>1.186317869087215</v>
       </c>
       <c r="R3">
-        <v>49.10834990893044</v>
+        <v>43.54728523651139</v>
       </c>
       <c r="S3">
-        <v>3.12</v>
+        <v>3.275</v>
       </c>
       <c r="T3">
-        <v>1.885245901639344</v>
+        <v>2</v>
       </c>
       <c r="U3">
-        <v>0.6340582641899388</v>
+        <v>0.6931471805599453</v>
       </c>
       <c r="V3">
-        <v>15.32244588441373</v>
+        <v>15.03578815256268</v>
       </c>
       <c r="W3">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="X3">
         <v>918</v>
       </c>
       <c r="Y3">
-        <v>812</v>
+        <v>827</v>
       </c>
       <c r="Z3">
-        <v>1.064039408866995</v>
+        <v>1.050785973397824</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -739,67 +739,67 @@
         <v>50</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="H4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I4">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K4">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N4">
-        <v>0.6475409836065574</v>
+        <v>0.5094339622641509</v>
       </c>
       <c r="O4">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="P4">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q4">
-        <v>1.132513840343791</v>
+        <v>1.074071179751992</v>
       </c>
       <c r="R4">
-        <v>56.31419726006011</v>
+        <v>46.92608511364043</v>
       </c>
       <c r="S4">
-        <v>3.103448275862069</v>
+        <v>2.927272727272727</v>
       </c>
       <c r="T4">
-        <v>3.323529411764706</v>
+        <v>2.542857142857143</v>
       </c>
       <c r="U4">
-        <v>1.201027294096179</v>
+        <v>0.9332883082427261</v>
       </c>
       <c r="V4">
-        <v>38.16507200072991</v>
+        <v>21.33490921150459</v>
       </c>
       <c r="W4">
-        <v>748</v>
+        <v>773</v>
       </c>
       <c r="X4">
         <v>827</v>
       </c>
       <c r="Y4">
-        <v>705</v>
+        <v>721</v>
       </c>
       <c r="Z4">
-        <v>1.060992907801418</v>
+        <v>1.072122052704577</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -819,67 +819,67 @@
         <v>50</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5">
         <v>139</v>
       </c>
       <c r="H5">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I5">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K5">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N5">
-        <v>0.6580645161290323</v>
+        <v>0.7022900763358778</v>
       </c>
       <c r="O5">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="P5">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q5">
-        <v>1.66875448959052</v>
+        <v>1.680206983322307</v>
       </c>
       <c r="R5">
-        <v>94.92483837474128</v>
+        <v>80.59379050033078</v>
       </c>
       <c r="S5">
-        <v>5.305555555555555</v>
+        <v>5.366666666666666</v>
       </c>
       <c r="T5">
-        <v>3.756756756756757</v>
+        <v>2.957446808510638</v>
       </c>
       <c r="U5">
-        <v>1.323556020486467</v>
+        <v>1.084326331420633</v>
       </c>
       <c r="V5">
-        <v>53.02842724200071</v>
+        <v>41.03666242323023</v>
       </c>
       <c r="W5">
-        <v>849</v>
+        <v>859</v>
       </c>
       <c r="X5">
         <v>951</v>
       </c>
       <c r="Y5">
-        <v>796</v>
+        <v>820</v>
       </c>
       <c r="Z5">
-        <v>1.066582914572864</v>
+        <v>1.047560975609756</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -899,67 +899,67 @@
         <v>50</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="H6">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I6">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="J6">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K6">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N6">
-        <v>0.8288288288288288</v>
+        <v>0.8229166666666666</v>
       </c>
       <c r="O6">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="P6">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="Q6">
-        <v>1.292768303109067</v>
+        <v>1.341173925839421</v>
       </c>
       <c r="R6">
-        <v>56.70373126941918</v>
+        <v>50.40008652145968</v>
       </c>
       <c r="S6">
-        <v>3.642857142857143</v>
+        <v>3.823529411764706</v>
       </c>
       <c r="T6">
-        <v>2.957446808510638</v>
+        <v>3.194444444444445</v>
       </c>
       <c r="U6">
-        <v>1.084326331420633</v>
+        <v>1.16141318990714</v>
       </c>
       <c r="V6">
-        <v>41.03666242323023</v>
+        <v>37.18912516334296</v>
       </c>
       <c r="W6">
-        <v>707</v>
+        <v>720</v>
       </c>
       <c r="X6">
         <v>799</v>
       </c>
       <c r="Y6">
-        <v>688</v>
+        <v>703</v>
       </c>
       <c r="Z6">
-        <v>1.027616279069767</v>
+        <v>1.024182076813656</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -979,67 +979,67 @@
         <v>50</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="H7">
         <v>40</v>
       </c>
       <c r="I7">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="J7">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K7">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N7">
-        <v>0.576</v>
+        <v>0.4636363636363636</v>
       </c>
       <c r="O7">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="P7">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="Q7">
-        <v>1.345709081004812</v>
+        <v>1.340384659815813</v>
       </c>
       <c r="R7">
-        <v>65.78880043578826</v>
+        <v>57.7249982671833</v>
       </c>
       <c r="S7">
-        <v>3.840909090909091</v>
+        <v>3.820512820512821</v>
       </c>
       <c r="T7">
-        <v>2.8</v>
+        <v>2.275</v>
       </c>
       <c r="U7">
-        <v>1.029619417181158</v>
+        <v>0.8219800524029137</v>
       </c>
       <c r="V7">
-        <v>30.81522331275367</v>
+        <v>18.12079790388345</v>
       </c>
       <c r="W7">
-        <v>847</v>
+        <v>868</v>
       </c>
       <c r="X7">
         <v>919</v>
       </c>
       <c r="Y7">
-        <v>794</v>
+        <v>809</v>
       </c>
       <c r="Z7">
-        <v>1.066750629722922</v>
+        <v>1.072929542645241</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1059,67 +1059,67 @@
         <v>50</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="H8">
         <v>60</v>
       </c>
       <c r="I8">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="J8">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K8">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N8">
-        <v>0.573170731707317</v>
+        <v>0.7482014388489209</v>
       </c>
       <c r="O8">
-        <v>258</v>
+        <v>183</v>
       </c>
       <c r="P8">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="Q8">
-        <v>1.009664802651614</v>
+        <v>1.42529651892316</v>
       </c>
       <c r="R8">
-        <v>69.09150855074833</v>
+        <v>76.28695316738097</v>
       </c>
       <c r="S8">
-        <v>2.74468085106383</v>
+        <v>4.159090909090909</v>
       </c>
       <c r="T8">
-        <v>2.566666666666667</v>
+        <v>2.733333333333333</v>
       </c>
       <c r="U8">
-        <v>0.9426080401915286</v>
+        <v>1.005521865602098</v>
       </c>
       <c r="V8">
-        <v>37.44351758850829</v>
+        <v>43.66868806387414</v>
       </c>
       <c r="W8">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="X8">
         <v>1124</v>
       </c>
       <c r="Y8">
-        <v>960</v>
+        <v>985</v>
       </c>
       <c r="Z8">
-        <v>1.072916666666667</v>
+        <v>1.035532994923858</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1139,67 +1139,67 @@
         <v>50</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H9">
+        <v>44</v>
+      </c>
+      <c r="I9">
+        <v>72</v>
+      </c>
+      <c r="J9">
+        <v>0.08</v>
+      </c>
+      <c r="K9">
+        <v>120</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>0.08</v>
+      </c>
+      <c r="N9">
+        <v>0.6</v>
+      </c>
+      <c r="O9">
+        <v>158</v>
+      </c>
+      <c r="P9">
         <v>38</v>
       </c>
-      <c r="I9">
-        <v>83</v>
-      </c>
-      <c r="J9">
-        <v>0.1</v>
-      </c>
-      <c r="K9">
-        <v>134</v>
-      </c>
-      <c r="L9">
-        <v>5</v>
-      </c>
-      <c r="M9">
-        <v>0.1</v>
-      </c>
-      <c r="N9">
-        <v>0.6194029850746269</v>
-      </c>
-      <c r="O9">
-        <v>182</v>
-      </c>
-      <c r="P9">
-        <v>48</v>
-      </c>
       <c r="Q9">
-        <v>1.332805676168904</v>
+        <v>1.425008873300581</v>
       </c>
       <c r="R9">
-        <v>70.02532754389259</v>
+        <v>65.84966281457793</v>
       </c>
       <c r="S9">
-        <v>3.791666666666667</v>
+        <v>4.157894736842105</v>
       </c>
       <c r="T9">
-        <v>3.184210526315789</v>
+        <v>2.636363636363636</v>
       </c>
       <c r="U9">
-        <v>1.158204385870355</v>
+        <v>0.9694005571881035</v>
       </c>
       <c r="V9">
-        <v>38.9882333369265</v>
+        <v>29.34637548372345</v>
       </c>
       <c r="W9">
-        <v>707</v>
+        <v>718</v>
       </c>
       <c r="X9">
         <v>790</v>
       </c>
       <c r="Y9">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="Z9">
-        <v>1.077743902439024</v>
+        <v>1.071641791044776</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1219,67 +1219,67 @@
         <v>50</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="H10">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="I10">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="J10">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K10">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N10">
-        <v>0.6306306306306306</v>
+        <v>0.4148936170212766</v>
       </c>
       <c r="O10">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="P10">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="Q10">
-        <v>1.328400382700988</v>
+        <v>1.419084183942882</v>
       </c>
       <c r="R10">
-        <v>57.86398469196048</v>
+        <v>51.42747448171355</v>
       </c>
       <c r="S10">
-        <v>3.775</v>
+        <v>4.133333333333334</v>
       </c>
       <c r="T10">
-        <v>2.060606060606061</v>
+        <v>1.684210526315789</v>
       </c>
       <c r="U10">
-        <v>0.7230001437096264</v>
+        <v>0.5212969236332861</v>
       </c>
       <c r="V10">
-        <v>22.28199051516466</v>
+        <v>9.286075352902696</v>
       </c>
       <c r="W10">
-        <v>837</v>
+        <v>868</v>
       </c>
       <c r="X10">
         <v>907</v>
       </c>
       <c r="Y10">
-        <v>796</v>
+        <v>813</v>
       </c>
       <c r="Z10">
-        <v>1.051507537688442</v>
+        <v>1.067650676506765</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1299,67 +1299,67 @@
         <v>50</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="H11">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="I11">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K11">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N11">
-        <v>0.6330275229357798</v>
+        <v>0.5473684210526316</v>
       </c>
       <c r="O11">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="P11">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="Q11">
-        <v>1.246248287474174</v>
+        <v>1.291678384745041</v>
       </c>
       <c r="R11">
-        <v>54.16507535113633</v>
+        <v>48.4995781491785</v>
       </c>
       <c r="S11">
-        <v>3.477272727272727</v>
+        <v>3.638888888888889</v>
       </c>
       <c r="T11">
-        <v>2.5</v>
+        <v>2.575757575757576</v>
       </c>
       <c r="U11">
-        <v>0.9162907318741551</v>
+        <v>0.9461436950238362</v>
       </c>
       <c r="V11">
-        <v>26.85062633378887</v>
+        <v>20.77725806421341</v>
       </c>
       <c r="W11">
-        <v>731</v>
+        <v>748</v>
       </c>
       <c r="X11">
         <v>800</v>
       </c>
       <c r="Y11">
-        <v>691</v>
+        <v>705</v>
       </c>
       <c r="Z11">
-        <v>1.057887120115774</v>
+        <v>1.060992907801418</v>
       </c>
     </row>
   </sheetData>
